--- a/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63526681-339A-ED4B-97C8-8DFCB5F9B3E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3DD00-43BB-1B42-93AF-804B225BC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="640" windowWidth="22100" windowHeight="20360" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Harbor Seal</t>
   </si>
   <si>
-    <t>Cameron 1999</t>
-  </si>
-  <si>
     <t>Table 4</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Table 5</t>
+  </si>
+  <si>
+    <t>Cameron &amp; Forney 1999</t>
   </si>
 </sst>
 </file>
@@ -125,10 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A15" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
@@ -468,52 +467,49 @@
     <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1997</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
@@ -534,20 +530,19 @@
       <c r="J2">
         <v>18</v>
       </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1997</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1206</v>
@@ -567,20 +562,19 @@
       <c r="J3">
         <v>897</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1997</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -600,19 +594,18 @@
       <c r="J4">
         <v>36</v>
       </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1997</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5">
@@ -633,19 +626,18 @@
       <c r="J5">
         <v>259</v>
       </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1997</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6">
@@ -666,20 +658,19 @@
       <c r="J6">
         <v>880</v>
       </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7">
+        <v>1997</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1997</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E7">
         <v>79</v>
@@ -699,20 +690,19 @@
       <c r="J7">
         <v>70</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1997</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
       <c r="E8">
         <v>52</v>
@@ -733,17 +723,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>1998</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
@@ -761,20 +751,19 @@
       <c r="I9">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
         <v>1998</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1228</v>
@@ -792,18 +781,18 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
         <v>1998</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -821,17 +810,17 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
         <v>1998</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12">
@@ -850,17 +839,17 @@
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
         <v>1998</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
@@ -879,18 +868,18 @@
         <v>0.10390000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>1998</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
       <c r="E14">
         <v>78</v>
@@ -908,18 +897,18 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>1998</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
         <v>70</v>
@@ -937,49 +926,25 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="4:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="4:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="4:4">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="4:4">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="4:4">
       <c r="D29" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="4:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="4:4">
       <c r="D32" s="1"/>
     </row>
     <row r="34" spans="4:4">

--- a/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3DD00-43BB-1B42-93AF-804B225BC095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D18830-9B76-9145-BDBC-D51F58D34E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="9840" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>reference</t>
   </si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>Cameron &amp; Forney 1999</t>
+  </si>
+  <si>
+    <t>n_data_tot</t>
   </si>
 </sst>
 </file>
@@ -445,7 +449,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A3:A15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -989,4 +993,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188C1B6-630A-3045-B045-0572E04F918F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1997</v>
+      </c>
+      <c r="B2">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1998</v>
+      </c>
+      <c r="B3">
+        <v>2818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
+++ b/data/historical_estimates/raw/Cameron_Forney_1999.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D18830-9B76-9145-BDBC-D51F58D34E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBD3F90-AC8A-8049-AD70-91DDF650C532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
+    <workbookView xWindow="20" yWindow="2000" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>reference</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Cameron &amp; Forney 1999</t>
   </si>
   <si>
-    <t>n_data_tot</t>
+    <t>nvesseldays</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5835606F-17C4-734B-AF17-790539259DAA}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -997,35 +997,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5188C1B6-630A-3045-B045-0572E04F918F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>1997</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>3092</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>1998</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>2818</v>
       </c>
     </row>
